--- a/Templates/SpecificReports/Sales.xlsx
+++ b/Templates/SpecificReports/Sales.xlsx
@@ -110,9 +110,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -120,6 +117,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +418,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5"/>
@@ -429,725 +429,725 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F34" si="0">D3+E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
         <f t="shared" ref="F35:F52" si="1">D35+E35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
